--- a/data/trans_bre/P10_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,51</t>
+          <t>0,36; 5,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 13,52</t>
+          <t>6,33; 13,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 14,76</t>
+          <t>8,22; 14,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 14,96</t>
+          <t>7,31; 14,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 63,45</t>
+          <t>2,92; 65,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,39; 120,56</t>
+          <t>42,79; 119,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,67; 188,07</t>
+          <t>73,35; 194,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,18; 154,12</t>
+          <t>49,53; 148,81</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,71</t>
+          <t>1,9; 4,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,61</t>
+          <t>3,24; 6,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,37</t>
+          <t>1,25; 4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,06</t>
+          <t>0,76; 4,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,96; 204,88</t>
+          <t>52,76; 212,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,87; 169,48</t>
+          <t>59,93; 172,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 112,37</t>
+          <t>22,75; 112,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 96,46</t>
+          <t>12,45; 98,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,77</t>
+          <t>-1,61; 3,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,46</t>
+          <t>-1,17; 4,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,01</t>
+          <t>-0,64; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,72</t>
+          <t>0,55; 5,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 150,15</t>
+          <t>-37,21; 146,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 273,85</t>
+          <t>-30,24; 248,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 217,89</t>
+          <t>-23,45; 218,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 214,62</t>
+          <t>9,54; 210,05</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>2,05; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,64</t>
+          <t>5,77; 8,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,71</t>
+          <t>3,97; 6,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,35</t>
+          <t>3,41; 6,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>35,97; 96,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,61; 140,81</t>
+          <t>78,34; 146,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,43; 139,27</t>
+          <t>64,8; 136,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,69; 118,3</t>
+          <t>53,35; 120,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,65</t>
+          <t>0,31; 5,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 13,07</t>
+          <t>6,77; 13,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,94</t>
+          <t>7,98; 14,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 65,27</t>
+          <t>2,64; 63,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,79; 119,71</t>
+          <t>46,09; 120,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,35; 194,2</t>
+          <t>73,49; 192,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,85</t>
+          <t>1,7; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,65</t>
+          <t>3,26; 6,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,54</t>
+          <t>1,43; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,76; 212,22</t>
+          <t>49,78; 218,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,93; 172,98</t>
+          <t>62,95; 173,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,75; 112,48</t>
+          <t>27,78; 113,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,52</t>
+          <t>-1,35; 3,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,43</t>
+          <t>-1,26; 4,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,87</t>
+          <t>-0,83; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 146,0</t>
+          <t>-30,97; 157,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 248,17</t>
+          <t>-31,83; 255,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 218,42</t>
+          <t>-24,14; 218,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,49</t>
+          <t>2,11; 4,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,71</t>
+          <t>5,52; 8,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,72</t>
+          <t>4,03; 6,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,97; 96,04</t>
+          <t>36,79; 97,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,34; 146,74</t>
+          <t>75,22; 142,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,8; 136,54</t>
+          <t>65,93; 137,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
